--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Guides.xlsx</t>
+  </si>
+  <si>
+    <t>TBLevel</t>
+  </si>
+  <si>
+    <t>ConfLevel</t>
+  </si>
+  <si>
+    <t>Level.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
@@ -1292,6 +1301,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>Level.xlsx</t>
+  </si>
+  <si>
+    <t>TBGoodIcon</t>
+  </si>
+  <si>
+    <t>ConfGoodIcon</t>
+  </si>
+  <si>
+    <t>GoodIcon.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1119,13 +1128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
     <col min="2" max="2" width="21.8333333333333" customWidth="1"/>
@@ -1318,6 +1327,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>GoodIcon.xlsx</t>
+  </si>
+  <si>
+    <t>TBLinkLine</t>
+  </si>
+  <si>
+    <t>ConfLinkLine</t>
+  </si>
+  <si>
+    <t>LinkLine.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1344,6 +1353,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -189,6 +189,33 @@
   </si>
   <si>
     <t>LinkLine.xlsx</t>
+  </si>
+  <si>
+    <t>TBTask</t>
+  </si>
+  <si>
+    <t>ConfTask</t>
+  </si>
+  <si>
+    <t>Task.xlsx</t>
+  </si>
+  <si>
+    <t>TBPayRegion</t>
+  </si>
+  <si>
+    <t>ConfPayRegion</t>
+  </si>
+  <si>
+    <t>PayRegion.xlsx</t>
+  </si>
+  <si>
+    <t>TBPayChannel</t>
+  </si>
+  <si>
+    <t>ConfPayChannel</t>
+  </si>
+  <si>
+    <t>PayChannel.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1370,6 +1397,57 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16635" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -216,6 +216,33 @@
   </si>
   <si>
     <t>PayChannel.xlsx</t>
+  </si>
+  <si>
+    <t>TBUserLevel</t>
+  </si>
+  <si>
+    <t>ConfUserLevel</t>
+  </si>
+  <si>
+    <t>UserLevel.xlsx</t>
+  </si>
+  <si>
+    <t>TBLoadingTitleSprite</t>
+  </si>
+  <si>
+    <t>ConfLoadingTitleSprite</t>
+  </si>
+  <si>
+    <t>LoadingTitleSprite.xlsx</t>
+  </si>
+  <si>
+    <t>TBLuckMoment</t>
+  </si>
+  <si>
+    <t>ConfLuckMoment</t>
+  </si>
+  <si>
+    <t>LuckMoment.xlsx</t>
   </si>
 </sst>
 </file>
@@ -897,13 +924,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1448,6 +1468,57 @@
         <v>34</v>
       </c>
     </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11655"/>
+    <workbookView windowWidth="13545" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>LuckMoment.xlsx</t>
+  </si>
+  <si>
+    <t>TBLevelDicIcon</t>
+  </si>
+  <si>
+    <t>ConfLevelDicIcon</t>
+  </si>
+  <si>
+    <t>LevelDicIcon.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1519,6 +1528,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>##var</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>LevelDicIcon.xlsx</t>
+  </si>
+  <si>
+    <t>TBReddot</t>
+  </si>
+  <si>
+    <t>ConfReddot</t>
+  </si>
+  <si>
+    <t>Reddot.xlsx</t>
+  </si>
+  <si>
+    <t>TBWithdrawableLevels</t>
+  </si>
+  <si>
+    <t>ConfWithdrawableLevels</t>
+  </si>
+  <si>
+    <t>WithdrawableLevels.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1545,6 +1563,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>WithdrawableLevels.xlsx</t>
+  </si>
+  <si>
+    <t>TBObstacleIcon</t>
+  </si>
+  <si>
+    <t>ConfObstacleIcon</t>
+  </si>
+  <si>
+    <t>ObstacleIcon.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1597,6 +1606,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>ObstacleIcon.xlsx</t>
+  </si>
+  <si>
+    <t>TBLevelAct</t>
+  </si>
+  <si>
+    <t>ConfLevelAct</t>
+  </si>
+  <si>
+    <t>LevelAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBGuidesAct</t>
+  </si>
+  <si>
+    <t>ConfGuidesAct</t>
+  </si>
+  <si>
+    <t>GuidesAct.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1623,6 +1641,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -279,24 +279,6 @@
   </si>
   <si>
     <t>ObstacleIcon.xlsx</t>
-  </si>
-  <si>
-    <t>TBLevelAct</t>
-  </si>
-  <si>
-    <t>ConfLevelAct</t>
-  </si>
-  <si>
-    <t>LevelAct.xlsx</t>
-  </si>
-  <si>
-    <t>TBGuidesAct</t>
-  </si>
-  <si>
-    <t>ConfGuidesAct</t>
-  </si>
-  <si>
-    <t>GuidesAct.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1641,40 +1623,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>ObstacleIcon.xlsx</t>
+  </si>
+  <si>
+    <t>TBGuidesAct</t>
+  </si>
+  <si>
+    <t>ConfGuidesAct</t>
+  </si>
+  <si>
+    <t>GuidesAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBLevelAct</t>
+  </si>
+  <si>
+    <t>ConfLevelAct</t>
+  </si>
+  <si>
+    <t>LevelAct.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1623,6 +1641,40 @@
         <v>34</v>
       </c>
     </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>LevelAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBGoodWeight</t>
+  </si>
+  <si>
+    <t>ConfGoodWeight</t>
+  </si>
+  <si>
+    <t>GoodWeight.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1675,6 +1684,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>LevelAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBLuckMomentAct</t>
+  </si>
+  <si>
+    <t>ConfLuckMomentAct</t>
+  </si>
+  <si>
+    <t>LuckMomentAct.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1675,6 +1684,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>LuckMomentAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBGoodWeight</t>
+  </si>
+  <si>
+    <t>ConfGoodWeight</t>
+  </si>
+  <si>
+    <t>GoodWeight.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1701,6 +1710,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>LuckMomentAct.xlsx</t>
+  </si>
+  <si>
+    <t>TBGoodWeight</t>
+  </si>
+  <si>
+    <t>ConfGoodWeight</t>
+  </si>
+  <si>
+    <t>GoodWeight.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1701,6 +1710,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__tables__.xlsx
+++ b/DesignerConfigs/Datas/__tables__.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -261,15 +261,6 @@
   </si>
   <si>
     <t>Reddot.xlsx</t>
-  </si>
-  <si>
-    <t>TBWithdrawableLevels</t>
-  </si>
-  <si>
-    <t>ConfWithdrawableLevels</t>
-  </si>
-  <si>
-    <t>WithdrawableLevels.xlsx</t>
   </si>
   <si>
     <t>TBObstacleIcon</t>
@@ -1256,10 +1247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="14.25"/>
@@ -1710,23 +1701,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
